--- a/resources/Pin usage.xlsx
+++ b/resources/Pin usage.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>ADC0 SE15</t>
   </si>
@@ -246,6 +246,60 @@
   </si>
   <si>
     <t>PTC6</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
+    <t>Additional info</t>
+  </si>
+  <si>
+    <t>LW; PTC8 CHA</t>
+  </si>
+  <si>
+    <t>LW; PTC9 CHB</t>
+  </si>
+  <si>
+    <t>RW; PTA4 CHA</t>
+  </si>
+  <si>
+    <t>RW; PTA5 CHB</t>
+  </si>
+  <si>
+    <t>PTE20; 0b00000</t>
+  </si>
+  <si>
+    <t>PTE21; 0b00100</t>
+  </si>
+  <si>
+    <t>PTE22; 0b00011</t>
+  </si>
+  <si>
+    <t>PTB2; 0b00111</t>
+  </si>
+  <si>
+    <t>PTC2; 0b01011</t>
+  </si>
+  <si>
+    <t>PTC1; 0b01111</t>
+  </si>
+  <si>
+    <t>PTB0; 0b01000</t>
+  </si>
+  <si>
+    <t>PTB1; 0b01010</t>
+  </si>
+  <si>
+    <t>ALT3</t>
+  </si>
+  <si>
+    <t>LW; PTC12; TPM2</t>
+  </si>
+  <si>
+    <t>RW; PTC13; TPM1</t>
   </si>
 </sst>
 </file>
@@ -563,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,10 +628,11 @@
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="62.375" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -590,8 +645,11 @@
       <c r="D1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -604,8 +662,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -618,8 +679,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -632,8 +696,11 @@
       <c r="D6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -646,8 +713,11 @@
       <c r="D7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -660,8 +730,11 @@
       <c r="D8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -674,8 +747,11 @@
       <c r="D9" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -688,8 +764,11 @@
       <c r="D10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -702,8 +781,11 @@
       <c r="D11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -716,8 +798,11 @@
       <c r="D12" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -730,8 +815,11 @@
       <c r="D13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -739,13 +827,16 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D17" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -753,13 +844,16 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D18" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -767,13 +861,16 @@
         <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -781,13 +878,16 @@
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -800,8 +900,11 @@
       <c r="D21" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -814,8 +917,11 @@
       <c r="D22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -829,7 +935,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -843,7 +949,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -857,7 +963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -871,7 +977,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -885,7 +991,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>25</v>
       </c>

--- a/resources/Pin usage.xlsx
+++ b/resources/Pin usage.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\guilherme\Documents\University\Current Semester\ES770\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilherme\Documents\University\Current Semester\ES770\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="98">
   <si>
     <t>ADC0 SE15</t>
   </si>
@@ -300,6 +300,24 @@
   </si>
   <si>
     <t>RW; PTC13; TPM1</t>
+  </si>
+  <si>
+    <t>J2 08</t>
+  </si>
+  <si>
+    <t>J2 10</t>
+  </si>
+  <si>
+    <t>Diag</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>PTD2</t>
+  </si>
+  <si>
+    <t>PTD3</t>
   </si>
 </sst>
 </file>
@@ -617,18 +635,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="62.375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="62.42578125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1049,6 +1067,34 @@
         <v>18</v>
       </c>
     </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
